--- a/Experimente_hiperparametrii.xlsx
+++ b/Experimente_hiperparametrii.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\AI-intro\7. Retele Complet Convolutionale\Rezolvari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\AI-intro\7. Retele Complet Convolutionale\retele_convolutionale_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988A5AB-41C8-456E-95B5-2F1D8DC08048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC2F263-C0B1-44DC-A51A-05CCA558CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2004" windowWidth="17280" windowHeight="9420" xr2:uid="{87ECBFE1-7C07-4D0F-A0E2-6C6978FE69C2}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>1E-4</v>
@@ -791,7 +791,9 @@
       <c r="G8" s="1">
         <v>0.5</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>0.70640000000000003</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="13"/>
     </row>
@@ -803,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>1E-4</v>
@@ -812,12 +814,14 @@
         <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>0.8</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>0.5111</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="13"/>
     </row>
